--- a/TA buku/Results/Categorization/dp-partial-ner-glove-money.xlsx
+++ b/TA buku/Results/Categorization/dp-partial-ner-glove-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1549">
   <si>
     <t>id</t>
   </si>
@@ -3142,7 +3142,7 @@
     <t>SERVICE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>|PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
+    <t>|PRICES|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD|PRICES</t>
@@ -3151,12 +3151,15 @@
     <t>FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES|PRICES|SERVICE</t>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
     <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
   </si>
   <si>
@@ -3187,7 +3190,7 @@
     <t>|PRICES</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|PRICES|SERVICE</t>
+    <t>PRICES|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|SERVICE|PRICES</t>
@@ -3217,222 +3220,210 @@
     <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES||FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES||</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE||AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES||FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE||AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
     <t>SERVICE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
@@ -3454,9 +3445,6 @@
     <t>AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
@@ -3466,7 +3454,7 @@
     <t>FOOD|PRICES|SERVICE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+    <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD</t>
@@ -3481,13 +3469,13 @@
     <t>SERVICE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>PRICES|PRICES|FOOD|</t>
+    <t>PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>SERVICE||SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|SERVICE|PRICES|SERVICE</t>
+    <t>AMBIENCE|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|SERVICE|SERVICE|PRICES</t>
@@ -3496,9 +3484,6 @@
     <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
     <t>SERVICE|SERVICE|PRICES</t>
   </si>
   <si>
@@ -3508,28 +3493,25 @@
     <t>AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE|FOOD|PRICES</t>
+    <t>SERVICE|PRICES|SERVICE|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+    <t>SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
@@ -3538,9 +3520,6 @@
     <t>|SERVICE</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
     <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
   </si>
   <si>
@@ -3550,31 +3529,25 @@
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>list!interesting|wine!interesting|values!many</t>
   </si>
   <si>
-    <t>price!beat</t>
-  </si>
-  <si>
-    <t>advanatage!-|half!-|price!-|sushi!-|deal!-|saturday!-</t>
+    <t>|price!beat</t>
+  </si>
+  <si>
+    <t>advanatage!-|half!-|price!-|sushi!-|deal!-</t>
   </si>
   <si>
     <t>menu!worth|prix!worth|fixe!worth|penny!more</t>
   </si>
   <si>
-    <t>food!fresh|$6</t>
-  </si>
-  <si>
-    <t>service!great|food!great|price!reasonable|beginning!great|evening!service</t>
+    <t>food!fresh|$6!-</t>
+  </si>
+  <si>
+    <t>service!great|food!great|price!reasonable|beginning!great</t>
   </si>
   <si>
     <t>pizza!-</t>
@@ -3586,7 +3559,7 @@
     <t>pizza!-|way!-</t>
   </si>
   <si>
-    <t>toppings!-|$20,</t>
+    <t>toppings!-|$20!-|$3!-</t>
   </si>
   <si>
     <t>atmosphere!greatest</t>
@@ -3595,10 +3568,10 @@
     <t>selection!great|wine!great|value!great|price!great|champagne!price|house!value</t>
   </si>
   <si>
-    <t>dessert!tiny|$8.00...just</t>
-  </si>
-  <si>
-    <t>drinks!welll</t>
+    <t>|dessert!tiny|$8.00!-</t>
+  </si>
+  <si>
+    <t>|drinks!welll</t>
   </si>
   <si>
     <t>beers!interesting|wines!interesting</t>
@@ -3610,22 +3583,22 @@
     <t>sushi!good</t>
   </si>
   <si>
-    <t>roll!huge|spicy!huge|tuna!huge</t>
-  </si>
-  <si>
-    <t>choices!limited|food!more|$18</t>
+    <t>|roll!huge|spicy!huge|tuna!huge</t>
+  </si>
+  <si>
+    <t>choices!limited|food!more|$18!-</t>
   </si>
   <si>
     <t>price!great|food!great|service!great</t>
   </si>
   <si>
-    <t>price!reasonable|$3-6</t>
-  </si>
-  <si>
-    <t>menu!typical|restaurant!menu</t>
-  </si>
-  <si>
-    <t>wines!average|$70+</t>
+    <t>price!reasonable|$3-6!-</t>
+  </si>
+  <si>
+    <t>|menu!typical|restaurant!menu</t>
+  </si>
+  <si>
+    <t>|wines!average|$70!-|$30!-</t>
   </si>
   <si>
     <t>food!greatest|menu!greatest|price!good|price!greatest|allergies!food|prixe!food|fixe!food|tasting!food</t>
@@ -3640,7 +3613,7 @@
     <t>prices!cheap|quality!prices</t>
   </si>
   <si>
-    <t>prices!mortal|gods!mortal|years!last|secret!last</t>
+    <t>|prices!mortal|gods!mortal|secret!last</t>
   </si>
   <si>
     <t>everytime!exceptional|food!exceptional|service!food|value!food</t>
@@ -3649,7 +3622,7 @@
     <t>place!pricey|food!worth</t>
   </si>
   <si>
-    <t>dishes!average</t>
+    <t>|dishes!average</t>
   </si>
   <si>
     <t>prices!cheap</t>
@@ -3658,28 +3631,28 @@
     <t>food!nasty|portions!small</t>
   </si>
   <si>
-    <t>sandwiches!-|anything!-|chips!-|side!-|$7)</t>
+    <t>sandwiches!-|anything!-|chips!-|side!-|$7!-</t>
   </si>
   <si>
     <t>prices!authentic</t>
   </si>
   <si>
-    <t>fallback!only|prices!only|restaurant!prices</t>
+    <t>|fallback!only|prices!only|restaurant!prices</t>
   </si>
   <si>
     <t>seafood!good|prices!high</t>
   </si>
   <si>
-    <t>lobster!-|sandwich!-|price!-|$24</t>
+    <t>lobster!-|sandwich!-|price!-|$24!-</t>
   </si>
   <si>
     <t>food!cheap|waiters!nice</t>
   </si>
   <si>
-    <t>plate!delight|cheese!delight|bargain!plate|delight!bargain|$10.</t>
-  </si>
-  <si>
-    <t>list!extensive|wine!extensive</t>
+    <t>plate!delight|cheese!delight|bargain!plate|delight!bargain|$10!-</t>
+  </si>
+  <si>
+    <t>|list!extensive|wine!extensive</t>
   </si>
   <si>
     <t>food!good|deal!great|place!food|self!great</t>
@@ -3691,7 +3664,7 @@
     <t>food!great</t>
   </si>
   <si>
-    <t>place!wonderful|points!wonderful|money.</t>
+    <t>place!wonderful|points!wonderful</t>
   </si>
   <si>
     <t>price!better|pizzas!terrific</t>
@@ -3703,22 +3676,22 @@
     <t>food!authentic</t>
   </si>
   <si>
-    <t>sandwiches!dry</t>
+    <t>|sandwiches!dry</t>
   </si>
   <si>
     <t>place!worth|prices!place</t>
   </si>
   <si>
-    <t>music!blasted|isnt!music</t>
+    <t>music!blasted|isnt!music|100 dollar!-</t>
   </si>
   <si>
     <t>food!reliable|price!moderate</t>
   </si>
   <si>
-    <t>shanty!recommend|vanilla!recommend|mmmm!shanty|$8.50</t>
-  </si>
-  <si>
-    <t>location!good|college!near|hutner!near|fact!location|prices!reasonable</t>
+    <t>shanty!recommend|vanilla!recommend|mmmm!shanty|$8.50!-</t>
+  </si>
+  <si>
+    <t>location!good|fact!location|prices!reasonable</t>
   </si>
   <si>
     <t>rest!worth|sum!worth</t>
@@ -3742,7 +3715,7 @@
     <t>food!great|price!great|place!beat</t>
   </si>
   <si>
-    <t>place!exceeded|expectations!exceeded|money.</t>
+    <t>place!exceeded|expectations!exceeded</t>
   </si>
   <si>
     <t>food!great|wines!good|selecion!good|prices!selecion</t>
@@ -3751,7 +3724,7 @@
     <t>ravioli!good|everything!overpriced|bit!everything</t>
   </si>
   <si>
-    <t>food!average|draw!food</t>
+    <t>|food!average|draw!food</t>
   </si>
   <si>
     <t>place!bargain</t>
@@ -3778,7 +3751,7 @@
     <t>price!-|quality!-|fish!-|return!-|visit!-</t>
   </si>
   <si>
-    <t>decor!fabulous|manhattan!trendy|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|avenue!restaurant|clientele!pretentious|clientele!soho/village/upper</t>
+    <t>decor!fabulous|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|clientele!pretentious|clientele!soho/village/upper</t>
   </si>
   <si>
     <t>restaurants!good|uws!good|food!overpriced|wait-staff!overpriced|service!clumsy|diner!clumsy|management!diner</t>
@@ -3790,16 +3763,16 @@
     <t>prices!mediocre|food!okay</t>
   </si>
   <si>
-    <t>food!solid|decor!solid|prices!reasonable|prices!nice|baluchi!food</t>
-  </si>
-  <si>
-    <t>sushi!-|$20</t>
-  </si>
-  <si>
-    <t>fish!-|chips!-|$15....</t>
-  </si>
-  <si>
-    <t>meal!good|$60</t>
+    <t>food!solid|decor!solid|prices!reasonable|prices!nice</t>
+  </si>
+  <si>
+    <t>sushi!-|$20!-</t>
+  </si>
+  <si>
+    <t>fish!-|chips!-|$15!-</t>
+  </si>
+  <si>
+    <t>meal!good|$60!-</t>
   </si>
   <si>
     <t>food!excellent|prices!excellent</t>
@@ -3811,22 +3784,22 @@
     <t>food!overpriced|service!overpriced</t>
   </si>
   <si>
-    <t>dinner!-|manhattan!-|feet!-|$400.00</t>
-  </si>
-  <si>
-    <t>guacamole!bland|plate!bland|$11</t>
+    <t>dinner!-|feet!-|$400.00!-</t>
+  </si>
+  <si>
+    <t>guacamole!bland|plate!bland|$11!-</t>
   </si>
   <si>
     <t>food!good|place!clean</t>
   </si>
   <si>
-    <t>water!-|table!-|voss!-|bottles!-|water!-|piece!-|$8</t>
+    <t>water!-|table!-|voss!-|bottles!-|water!-|piece!-|$8!-</t>
   </si>
   <si>
     <t>food!decent|price!decent|people!friendly|people!decent</t>
   </si>
   <si>
-    <t>prices!high|view!prices</t>
+    <t>|prices!high|view!prices</t>
   </si>
   <si>
     <t>price!-|prestige!-|location!-</t>
@@ -3841,16 +3814,16 @@
     <t>place!great|value!great</t>
   </si>
   <si>
-    <t>food!flavorful</t>
-  </si>
-  <si>
-    <t>service!helpful|price!helpful|dish!helpful|$10.</t>
+    <t>|food!flavorful</t>
+  </si>
+  <si>
+    <t>service!helpful|price!helpful|dish!helpful|$10!-</t>
   </si>
   <si>
     <t>martinis!amazing</t>
   </si>
   <si>
-    <t>dinner!-|wine!-|$500</t>
+    <t>dinner!-|wine!-|$500!-</t>
   </si>
   <si>
     <t>environment!-|name!-</t>
@@ -3862,52 +3835,52 @@
     <t>restaurant!expensive</t>
   </si>
   <si>
-    <t>restaurants!new|landmark!new|city!new</t>
-  </si>
-  <si>
-    <t>service!ok|$500.</t>
-  </si>
-  <si>
-    <t>home!-|casa!-|la!-|femme!-|visit!-|diners!-|money!-|time!-|money</t>
-  </si>
-  <si>
-    <t>drinks!horrible|$14</t>
-  </si>
-  <si>
-    <t>dinner!-|$55</t>
+    <t>|restaurants!new|landmark!new</t>
+  </si>
+  <si>
+    <t>|service!ok|$500!-</t>
+  </si>
+  <si>
+    <t>home!-|visit!-|diners!-|money!-|time!-</t>
+  </si>
+  <si>
+    <t>drinks!horrible|$14!-</t>
+  </si>
+  <si>
+    <t>dinner!-|$55!-</t>
   </si>
   <si>
     <t>show!missed|food!enjoy|wallets!empy|experience!good|dancers!food|belly!food</t>
   </si>
   <si>
-    <t>bill!inedible|portion!bill</t>
-  </si>
-  <si>
-    <t>money!wasted|money.</t>
+    <t>|bill!inedible|portion!bill</t>
+  </si>
+  <si>
+    <t>money!wasted</t>
   </si>
   <si>
     <t>side!expensive|food!good</t>
   </si>
   <si>
-    <t>restaurant!upscale|feel!upscale|price!feel|place!feel|$25),</t>
-  </si>
-  <si>
-    <t>something!complimentary|food!indian|$</t>
+    <t>restaurant!upscale|feel!upscale|price!feel|place!feel|$25!-</t>
+  </si>
+  <si>
+    <t>something!complimentary|food!indian|$!-</t>
   </si>
   <si>
     <t>buffet!expensive|lunch!expensive</t>
   </si>
   <si>
-    <t>stone!-|bowl!-|$2</t>
-  </si>
-  <si>
-    <t>deal!wonderful|bbe!wonderful|party!bbe|$29</t>
+    <t>stone!-|bowl!-|$2!-</t>
+  </si>
+  <si>
+    <t>deal!wonderful|party!bbe|$29!-</t>
   </si>
   <si>
     <t>company!great|date!super|point!super|price!super|things!date|brasserie!good</t>
   </si>
   <si>
-    <t>service!horrible|$500</t>
+    <t>service!horrible|$500!-</t>
   </si>
   <si>
     <t>meat!fresh|kimchi!good|sauces!great|salad!kimchi|meal!salad|service!meal</t>
@@ -3916,7 +3889,7 @@
     <t>food!good|price!high</t>
   </si>
   <si>
-    <t>bite!-|salmon!-|years!-|restaurants!-|salmon!-|flatbush!-|farms!-|$24</t>
+    <t>bite!-|salmon!-|restaurants!-|salmon!-|$24!-</t>
   </si>
   <si>
     <t>eggplant!cold</t>
@@ -3925,7 +3898,7 @@
     <t>pricing!complaint</t>
   </si>
   <si>
-    <t>service!better|$60</t>
+    <t>service!better|$60!-</t>
   </si>
   <si>
     <t>joint!hot|dog!hot|glance!first|bark!dog</t>
@@ -3937,7 +3910,7 @@
     <t>bread!stale</t>
   </si>
   <si>
-    <t>place!empty</t>
+    <t>|place!empty</t>
   </si>
   <si>
     <t>food!lousy|portions!tiny</t>
@@ -3952,28 +3925,28 @@
     <t>cart!-|attendant!-|lotus!-|leaf!-|rice!-|rice!-</t>
   </si>
   <si>
-    <t>mai!greasy|pork!greasy|fun!dry|chow!dry|family!loud|shu!greasy</t>
+    <t>mai!greasy|pork!greasy|fun!dry|family!loud|shu!greasy</t>
   </si>
   <si>
     <t>service!excellent|perfection!service</t>
   </si>
   <si>
-    <t>visit!special</t>
+    <t>|visit!special</t>
   </si>
   <si>
     <t>bit!sweet|stuff!sweet|food!average|fusion!thai|thing!bit</t>
   </si>
   <si>
-    <t>thing!only|chicken!only|puree!chicken</t>
-  </si>
-  <si>
-    <t>salt!more|bit!salt</t>
+    <t>|thing!only|chicken!only|puree!chicken</t>
+  </si>
+  <si>
+    <t>|salt!more|bit!salt</t>
   </si>
   <si>
     <t>effort!kills|tho!effort</t>
   </si>
   <si>
-    <t>list!extensive|sake!extensive</t>
+    <t>|list!extensive|sake!extensive</t>
   </si>
   <si>
     <t>roll!good|spicy!good|tempura!awesome|tuna!good|appetizer!tempura|rock!awesome|shrimp!awesome</t>
@@ -4006,7 +3979,7 @@
     <t>rice!good|ration!good</t>
   </si>
   <si>
-    <t>food!prepared|impecable!food</t>
+    <t>|food!prepared|impecable!food</t>
   </si>
   <si>
     <t>dishes!great</t>
@@ -4015,7 +3988,7 @@
     <t>somosas!-|chai!-|chole!-|dhosas!-|dhal!-</t>
   </si>
   <si>
-    <t>service!-|varys!-|day!-|day!-</t>
+    <t>service!-|varys!-</t>
   </si>
   <si>
     <t>kitchen!slow</t>
@@ -4027,19 +4000,19 @@
     <t>ambience!nice|lunch!best|conversation!ambience</t>
   </si>
   <si>
-    <t>river!-|weehawken!-|idea!-|top!-|view!-|chart!-|house!-</t>
+    <t>river!-|idea!-|top!-|view!-|chart!-|house!-</t>
   </si>
   <si>
     <t>dessert!incredible|lava!incredible|cake!incredible</t>
   </si>
   <si>
-    <t>bistro!small|path!small</t>
+    <t>|bistro!small|path!small</t>
   </si>
   <si>
     <t>restaurant!cozy</t>
   </si>
   <si>
-    <t>desserts!brilliant|soup!brilliant|food!average|onion!french|way!desserts</t>
+    <t>desserts!brilliant|soup!brilliant|food!average|way!desserts</t>
   </si>
   <si>
     <t>ambience!-|food!-|companion!-|trip!-|world!-</t>
@@ -4066,7 +4039,7 @@
     <t>shrimp!fried|wife!shrimp</t>
   </si>
   <si>
-    <t>signs!japanese|menus!japanese|food!menus|waitstaff!menus</t>
+    <t>|signs!japanese|menus!japanese|food!menus|waitstaff!menus</t>
   </si>
   <si>
     <t>leon!gem|fare!prepared|bistro!prepared|village!leon|specials!good|gem!fare|atmosphere!warm|hip!fare</t>
@@ -4096,16 +4069,16 @@
     <t>service!great</t>
   </si>
   <si>
-    <t>people!-|new!-|york!-</t>
-  </si>
-  <si>
-    <t>pizza!yummy</t>
+    <t>people!-</t>
+  </si>
+  <si>
+    <t>|pizza!yummy</t>
   </si>
   <si>
     <t>lunch!-|reviews!-</t>
   </si>
   <si>
-    <t>sauce!watery|flavor!much|food!flavor</t>
+    <t>|sauce!watery|flavor!much|food!flavor</t>
   </si>
   <si>
     <t>waitress!patient|food!phenomenal</t>
@@ -4117,7 +4090,7 @@
     <t>pizza!great|service!great</t>
   </si>
   <si>
-    <t>wait!small</t>
+    <t>|wait!small</t>
   </si>
   <si>
     <t>block!magnificent|end!magnificent</t>
@@ -4129,7 +4102,7 @@
     <t>terrace!enjoy|garden!enjoy</t>
   </si>
   <si>
-    <t>nights!warm|restaurant!warm|kitchen!open|part!open</t>
+    <t>restaurant!warm|kitchen!open|part!open</t>
   </si>
   <si>
     <t>setting!intimate|service!intimate|occasion!special</t>
@@ -4141,7 +4114,7 @@
     <t>lounge!attraction</t>
   </si>
   <si>
-    <t>restaurant!romantic|raga!romantic</t>
+    <t>restaurant!romantic</t>
   </si>
   <si>
     <t>staff!helpful</t>
@@ -4156,7 +4129,7 @@
     <t>server!helpful</t>
   </si>
   <si>
-    <t>atmosphere!wonderful|evening!cool|avenue!6th</t>
+    <t>atmosphere!wonderful|avenue!6th</t>
   </si>
   <si>
     <t>staff!nonsense</t>
@@ -4174,7 +4147,7 @@
     <t>decor!vibrant|boths!right|side!right|side!several|hall!right</t>
   </si>
   <si>
-    <t>time!first|band!time|atmosphere!band|jazz!live</t>
+    <t>|time!first|band!time|atmosphere!band|jazz!live</t>
   </si>
   <si>
     <t>server!cool</t>
@@ -4183,7 +4156,7 @@
     <t>laugh!good|bathrooms!hidden|decor!hidden</t>
   </si>
   <si>
-    <t>staff!professional</t>
+    <t>|staff!professional</t>
   </si>
   <si>
     <t>thing!good|service!good|restaurant!thing</t>
@@ -4261,7 +4234,7 @@
     <t>place!fun</t>
   </si>
   <si>
-    <t>staff!friendliest</t>
+    <t>|staff!friendliest</t>
   </si>
   <si>
     <t>place!-|lot!-|fun!-</t>
@@ -4273,28 +4246,28 @@
     <t>service!slow</t>
   </si>
   <si>
-    <t>service!quick</t>
+    <t>|service!quick</t>
   </si>
   <si>
     <t>delivery!-</t>
   </si>
   <si>
-    <t>zero!-|ambiance!-|boot!-</t>
+    <t>ambiance!-|boot!-</t>
   </si>
   <si>
     <t>ambience!nice|service!great</t>
   </si>
   <si>
-    <t>nothing!special|atmosphere!special|establishment!nothing</t>
-  </si>
-  <si>
-    <t>owner!japanese|staff!japanese</t>
+    <t>|nothing!special|atmosphere!special|establishment!nothing</t>
+  </si>
+  <si>
+    <t>|owner!japanese|staff!japanese</t>
   </si>
   <si>
     <t>trattoria!top|top!quaint</t>
   </si>
   <si>
-    <t>room!back|secret!back</t>
+    <t>|room!back|secret!back</t>
   </si>
   <si>
     <t>service!excellent</t>
@@ -4336,7 +4309,7 @@
     <t>restaurant!cramped</t>
   </si>
   <si>
-    <t>bar!nice|cigar!nice|staff!great|patroon!bar</t>
+    <t>bar!nice|cigar!nice|staff!great</t>
   </si>
   <si>
     <t>waitstaff!friendly</t>
@@ -4345,7 +4318,7 @@
     <t>service!good|ambience!good|date!service|outing!date|group!date</t>
   </si>
   <si>
-    <t>occassion!special|sort!special|candle!occassion</t>
+    <t>|occassion!special|sort!special|candle!occassion</t>
   </si>
   <si>
     <t>waiter!attentive|mark!attentive</t>
@@ -4354,7 +4327,7 @@
     <t>atmosphere!great|hesititate!hate</t>
   </si>
   <si>
-    <t>town!little</t>
+    <t>|town!little</t>
   </si>
   <si>
     <t>cafe!-|noir!-|dont!-|jsut!-|people!-</t>
@@ -4366,7 +4339,7 @@
     <t>waitress!-</t>
   </si>
   <si>
-    <t>things!work|thing!only|tips!only|america!things</t>
+    <t>things!work|thing!only|tips!only</t>
   </si>
   <si>
     <t>tip!-|model/waitress!-|manager!-</t>
@@ -4378,7 +4351,7 @@
     <t>decor!charming</t>
   </si>
   <si>
-    <t>experience!worst|customer!worst|service!worst|weeks!experience|restaurant!worst</t>
+    <t>experience!worst|customer!worst|service!worst|restaurant!worst</t>
   </si>
   <si>
     <t>gentleman!-|manager!-|table!-|smile!-|order!-</t>
@@ -4393,13 +4366,13 @@
     <t>staff!nice|bathroom!unisex</t>
   </si>
   <si>
-    <t>patrons!last|time!last|closing!patrons</t>
+    <t>|patrons!last|time!last|closing!patrons</t>
   </si>
   <si>
     <t>staff!friendly|company!enjoy|meal!enjoy</t>
   </si>
   <si>
-    <t>patio!back</t>
+    <t>|patio!back</t>
   </si>
   <si>
     <t>service!slow|bit!service</t>
@@ -4414,7 +4387,7 @@
     <t>crowd!nice</t>
   </si>
   <si>
-    <t>waiter!-|money!-|guys!-|outta!-|money</t>
+    <t>waiter!-|money!-|guys!-|outta!-</t>
   </si>
   <si>
     <t>staff!attentive|wait!attentive</t>
@@ -4435,13 +4408,13 @@
     <t>place!great</t>
   </si>
   <si>
-    <t>murray!-|anything!-|service!-</t>
+    <t>anything!-|service!-</t>
   </si>
   <si>
     <t>service!awful</t>
   </si>
   <si>
-    <t>sandwich!open|cheese!open|manager!sandwich</t>
+    <t>|sandwich!open|cheese!open|manager!sandwich</t>
   </si>
   <si>
     <t>location!perfect</t>
@@ -4453,31 +4426,31 @@
     <t>atmoshere!great|bit!great</t>
   </si>
   <si>
-    <t>crew!best|winnie!best|staff!winnie|staff!crew</t>
+    <t>crew!best|staff!winnie|staff!crew</t>
   </si>
   <si>
     <t>place!quiet</t>
   </si>
   <si>
-    <t>staff!pleasant|wait!pleasant|part!most|beautification!wonderful|fun!staff|way!wonderful|way!wonderful|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>part!best|atmosphere!best|ls!best|bts!atmosphere|night!late</t>
-  </si>
-  <si>
-    <t>taste!good|music!good|dj!taste|lady!in-house|nights!in-house</t>
-  </si>
-  <si>
-    <t>feature!great|terrace!great|suan!great</t>
-  </si>
-  <si>
-    <t>staff!friendlier</t>
-  </si>
-  <si>
-    <t>setting!casual</t>
-  </si>
-  <si>
-    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like|chinatown!sleek</t>
+    <t>staff!pleasant|wait!pleasant|part!most|beautification!wonderful|fun!staff|way!wonderful|way!wonderful|$*!-</t>
+  </si>
+  <si>
+    <t>part!best|atmosphere!best|ls!best|bts!atmosphere</t>
+  </si>
+  <si>
+    <t>taste!good|music!good|dj!taste|lady!in-house</t>
+  </si>
+  <si>
+    <t>feature!great|terrace!great</t>
+  </si>
+  <si>
+    <t>|staff!friendlier</t>
+  </si>
+  <si>
+    <t>|setting!casual</t>
+  </si>
+  <si>
+    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like</t>
   </si>
   <si>
     <t>service!friendly|atmosphere!casual</t>
@@ -4495,7 +4468,7 @@
     <t>place!beautiful</t>
   </si>
   <si>
-    <t>restaurant!typical|nyc!typical|gimmick!typical|theme!typical</t>
+    <t>|restaurant!typical|nyc!typical|gimmick!typical|theme!typical</t>
   </si>
   <si>
     <t>atomosphere!cozy|tables!cozy</t>
@@ -4504,16 +4477,16 @@
     <t>ceiling!spectacular|room!main|dining!main</t>
   </si>
   <si>
-    <t>patio!gigantic</t>
-  </si>
-  <si>
-    <t>months!warmer|seating!warmer|winter!outdoor</t>
+    <t>|patio!gigantic</t>
+  </si>
+  <si>
+    <t>seating!warmer</t>
   </si>
   <si>
     <t>design!good|atmosphere!good</t>
   </si>
   <si>
-    <t>opera!italian|everything!italian|jukebox!everything|strokes!jukebox</t>
+    <t>|opera!italian|everything!italian|jukebox!everything|strokes!jukebox</t>
   </si>
   <si>
     <t>space!attractive|redone!attractive</t>
@@ -4525,7 +4498,7 @@
     <t>indoor!-</t>
   </si>
   <si>
-    <t>decor!simple</t>
+    <t>|decor!simple</t>
   </si>
   <si>
     <t>jazz!-|duo!-|point!-</t>
@@ -4537,25 +4510,25 @@
     <t>scene!love|character!nice|light!nice|place!character</t>
   </si>
   <si>
-    <t>atmosphere!love|paris!atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant!warm|city!new|friend!city</t>
+    <t>atmosphere!love</t>
+  </si>
+  <si>
+    <t>restaurant!warm|friend!city</t>
   </si>
   <si>
     <t>space!-|kind!-|alice!-|wonderland!-|setting!-</t>
   </si>
   <si>
-    <t>place!hidden|bit!place</t>
-  </si>
-  <si>
-    <t>something!-|atmosphere!-|week!-</t>
+    <t>|place!hidden|bit!place</t>
+  </si>
+  <si>
+    <t>something!-|atmosphere!-</t>
   </si>
   <si>
     <t>restaurant!nice</t>
   </si>
   <si>
-    <t>area!nice|garden!nice|months!area</t>
+    <t>area!nice|garden!nice</t>
   </si>
   <si>
     <t>place!recommend</t>
@@ -4564,7 +4537,7 @@
     <t>view!nice|river!nice|nyc!river</t>
   </si>
   <si>
-    <t>restaurant!dreamy</t>
+    <t>|restaurant!dreamy</t>
   </si>
   <si>
     <t>hookah!-</t>
@@ -4579,7 +4552,7 @@
     <t>seating!great</t>
   </si>
   <si>
-    <t>boths!small</t>
+    <t>|boths!small</t>
   </si>
   <si>
     <t>belly!-|dancing!-|crowd!-</t>
@@ -5094,10 +5067,10 @@
         <v>1041</v>
       </c>
       <c r="G2" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="H2" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5120,10 +5093,10 @@
         <v>990</v>
       </c>
       <c r="G3" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="H3" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5146,10 +5119,10 @@
         <v>1042</v>
       </c>
       <c r="G4" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="H4" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5172,10 +5145,10 @@
         <v>1043</v>
       </c>
       <c r="G5" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="H5" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5198,10 +5171,10 @@
         <v>1044</v>
       </c>
       <c r="G6" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="H6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5224,10 +5197,10 @@
         <v>1045</v>
       </c>
       <c r="G7" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="H7" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5250,10 +5223,10 @@
         <v>1021</v>
       </c>
       <c r="G8" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="H8" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5276,10 +5249,10 @@
         <v>1044</v>
       </c>
       <c r="G9" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="H9" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5302,10 +5275,10 @@
         <v>1046</v>
       </c>
       <c r="G10" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="H10" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5325,13 +5298,13 @@
         <v>991</v>
       </c>
       <c r="F11" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="G11" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="H11" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5354,10 +5327,10 @@
         <v>1026</v>
       </c>
       <c r="G12" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="H12" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5377,13 +5350,13 @@
         <v>989</v>
       </c>
       <c r="F13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G13" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="H13" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5406,10 +5379,10 @@
         <v>1044</v>
       </c>
       <c r="G14" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="H14" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5432,10 +5405,10 @@
         <v>1021</v>
       </c>
       <c r="G15" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="H15" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5455,13 +5428,13 @@
         <v>989</v>
       </c>
       <c r="F16" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G16" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="H16" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5481,13 +5454,13 @@
         <v>993</v>
       </c>
       <c r="F17" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G17" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="H17" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5510,10 +5483,10 @@
         <v>1021</v>
       </c>
       <c r="G18" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="H18" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5533,13 +5506,13 @@
         <v>989</v>
       </c>
       <c r="F19" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G19" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="H19" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5559,13 +5532,13 @@
         <v>987</v>
       </c>
       <c r="F20" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G20" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="H20" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5585,13 +5558,13 @@
         <v>994</v>
       </c>
       <c r="F21" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G21" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="H21" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5611,13 +5584,13 @@
         <v>995</v>
       </c>
       <c r="F22" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G22" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="H22" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5637,7 +5610,7 @@
         <v>992</v>
       </c>
       <c r="H23" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5657,13 +5630,13 @@
         <v>996</v>
       </c>
       <c r="F24" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G24" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="H24" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5683,13 +5656,13 @@
         <v>987</v>
       </c>
       <c r="F25" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="G25" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="H25" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5709,13 +5682,13 @@
         <v>997</v>
       </c>
       <c r="F26" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G26" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="H26" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5738,10 +5711,10 @@
         <v>1046</v>
       </c>
       <c r="G27" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="H27" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5761,13 +5734,13 @@
         <v>998</v>
       </c>
       <c r="F28" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G28" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="H28" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5787,13 +5760,13 @@
         <v>999</v>
       </c>
       <c r="F29" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G29" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="H29" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5813,13 +5786,13 @@
         <v>1000</v>
       </c>
       <c r="F30" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G30" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="H30" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5839,13 +5812,13 @@
         <v>1001</v>
       </c>
       <c r="F31" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G31" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="H31" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5865,13 +5838,13 @@
         <v>994</v>
       </c>
       <c r="F32" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G32" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="H32" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5894,10 +5867,10 @@
         <v>1021</v>
       </c>
       <c r="G33" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="H33" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5920,10 +5893,10 @@
         <v>990</v>
       </c>
       <c r="G34" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="H34" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5946,10 +5919,10 @@
         <v>1046</v>
       </c>
       <c r="G35" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="H35" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5969,13 +5942,13 @@
         <v>987</v>
       </c>
       <c r="F36" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G36" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="H36" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5998,10 +5971,10 @@
         <v>990</v>
       </c>
       <c r="G37" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="H37" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6021,13 +5994,13 @@
         <v>990</v>
       </c>
       <c r="F38" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G38" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="H38" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6050,10 +6023,10 @@
         <v>1044</v>
       </c>
       <c r="G39" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="H39" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6073,13 +6046,13 @@
         <v>989</v>
       </c>
       <c r="F40" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G40" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="H40" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6099,13 +6072,13 @@
         <v>993</v>
       </c>
       <c r="F41" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G41" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="H41" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6125,13 +6098,13 @@
         <v>989</v>
       </c>
       <c r="F42" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G42" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="H42" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6151,13 +6124,13 @@
         <v>987</v>
       </c>
       <c r="F43" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G43" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="H43" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6177,13 +6150,13 @@
         <v>1002</v>
       </c>
       <c r="F44" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G44" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="H44" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6203,13 +6176,13 @@
         <v>1003</v>
       </c>
       <c r="F45" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G45" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="H45" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6232,10 +6205,10 @@
         <v>1021</v>
       </c>
       <c r="G46" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="H46" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6255,13 +6228,13 @@
         <v>990</v>
       </c>
       <c r="F47" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G47" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="H47" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6281,13 +6254,13 @@
         <v>987</v>
       </c>
       <c r="F48" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G48" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="H48" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6310,10 +6283,10 @@
         <v>1021</v>
       </c>
       <c r="G49" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="H49" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6336,10 +6309,10 @@
         <v>1021</v>
       </c>
       <c r="G50" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="H50" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6362,10 +6335,10 @@
         <v>1021</v>
       </c>
       <c r="G51" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="H51" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6385,13 +6358,13 @@
         <v>990</v>
       </c>
       <c r="F52" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G52" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="H52" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6414,10 +6387,10 @@
         <v>1021</v>
       </c>
       <c r="G53" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="H53" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6440,10 +6413,10 @@
         <v>1070</v>
       </c>
       <c r="G54" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="H54" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6466,10 +6439,10 @@
         <v>1044</v>
       </c>
       <c r="G55" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="H55" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6492,10 +6465,10 @@
         <v>1071</v>
       </c>
       <c r="G56" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="H56" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6518,10 +6491,10 @@
         <v>1072</v>
       </c>
       <c r="G57" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="H57" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6541,13 +6514,13 @@
         <v>1004</v>
       </c>
       <c r="F58" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G58" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="H58" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6570,10 +6543,10 @@
         <v>1073</v>
       </c>
       <c r="G59" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="H59" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6593,13 +6566,13 @@
         <v>1000</v>
       </c>
       <c r="F60" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G60" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="H60" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6622,10 +6595,10 @@
         <v>1074</v>
       </c>
       <c r="G61" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="H61" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6648,10 +6621,10 @@
         <v>1075</v>
       </c>
       <c r="G62" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="H62" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6671,13 +6644,13 @@
         <v>987</v>
       </c>
       <c r="F63" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G63" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="H63" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6700,10 +6673,10 @@
         <v>1076</v>
       </c>
       <c r="G64" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="H64" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6726,10 +6699,10 @@
         <v>1077</v>
       </c>
       <c r="G65" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="H65" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6749,13 +6722,13 @@
         <v>987</v>
       </c>
       <c r="F66" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G66" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="H66" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6778,10 +6751,10 @@
         <v>1078</v>
       </c>
       <c r="G67" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="H67" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6804,10 +6777,10 @@
         <v>1079</v>
       </c>
       <c r="G68" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="H68" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6830,10 +6803,10 @@
         <v>1044</v>
       </c>
       <c r="G69" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="H69" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6856,10 +6829,10 @@
         <v>1026</v>
       </c>
       <c r="G70" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="H70" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6882,10 +6855,10 @@
         <v>1021</v>
       </c>
       <c r="G71" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="H71" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6905,13 +6878,13 @@
         <v>1004</v>
       </c>
       <c r="F72" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G72" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="H72" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6934,10 +6907,10 @@
         <v>1044</v>
       </c>
       <c r="G73" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="H73" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6960,10 +6933,10 @@
         <v>1044</v>
       </c>
       <c r="G74" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="H74" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6983,13 +6956,13 @@
         <v>987</v>
       </c>
       <c r="F75" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G75" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="H75" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7012,10 +6985,10 @@
         <v>1080</v>
       </c>
       <c r="G76" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="H76" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7038,10 +7011,10 @@
         <v>1081</v>
       </c>
       <c r="G77" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="H77" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7064,10 +7037,10 @@
         <v>1082</v>
       </c>
       <c r="G78" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H78" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7090,10 +7063,10 @@
         <v>1083</v>
       </c>
       <c r="G79" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H79" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7116,10 +7089,10 @@
         <v>1084</v>
       </c>
       <c r="G80" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="H80" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7139,13 +7112,13 @@
         <v>987</v>
       </c>
       <c r="F81" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G81" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="H81" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7168,10 +7141,10 @@
         <v>1085</v>
       </c>
       <c r="G82" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="H82" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7194,10 +7167,10 @@
         <v>1044</v>
       </c>
       <c r="G83" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="H83" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7217,13 +7190,13 @@
         <v>991</v>
       </c>
       <c r="F84" t="s">
-        <v>1086</v>
+        <v>1047</v>
       </c>
       <c r="G84" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="H84" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7246,10 +7219,10 @@
         <v>1044</v>
       </c>
       <c r="G85" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="H85" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7272,10 +7245,10 @@
         <v>1044</v>
       </c>
       <c r="G86" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="H86" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7295,13 +7268,13 @@
         <v>990</v>
       </c>
       <c r="F87" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G87" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="H87" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7321,13 +7294,13 @@
         <v>993</v>
       </c>
       <c r="F88" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G88" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="H88" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7347,7 +7320,7 @@
         <v>990</v>
       </c>
       <c r="H89" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7367,13 +7340,13 @@
         <v>990</v>
       </c>
       <c r="F90" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G90" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="H90" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7396,10 +7369,10 @@
         <v>1079</v>
       </c>
       <c r="G91" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="H91" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7422,10 +7395,10 @@
         <v>1046</v>
       </c>
       <c r="G92" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="H92" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7445,13 +7418,13 @@
         <v>990</v>
       </c>
       <c r="F93" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G93" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="H93" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7474,10 +7447,10 @@
         <v>1074</v>
       </c>
       <c r="G94" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="H94" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7500,10 +7473,10 @@
         <v>1075</v>
       </c>
       <c r="G95" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="H95" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7523,13 +7496,13 @@
         <v>1012</v>
       </c>
       <c r="F96" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G96" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="H96" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7549,13 +7522,13 @@
         <v>1013</v>
       </c>
       <c r="F97" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G97" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="H97" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7575,13 +7548,13 @@
         <v>991</v>
       </c>
       <c r="F98" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G98" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="H98" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7601,13 +7574,13 @@
         <v>990</v>
       </c>
       <c r="F99" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G99" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="H99" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7630,10 +7603,10 @@
         <v>1021</v>
       </c>
       <c r="G100" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="H100" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7653,13 +7626,13 @@
         <v>1012</v>
       </c>
       <c r="F101" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G101" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="H101" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7682,10 +7655,10 @@
         <v>1021</v>
       </c>
       <c r="G102" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="H102" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7708,10 +7681,10 @@
         <v>1079</v>
       </c>
       <c r="G103" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="H103" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7731,13 +7704,13 @@
         <v>992</v>
       </c>
       <c r="F104" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G104" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="H104" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7760,10 +7733,10 @@
         <v>1026</v>
       </c>
       <c r="G105" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="H105" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7786,10 +7759,10 @@
         <v>1019</v>
       </c>
       <c r="G106" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="H106" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7809,13 +7782,13 @@
         <v>990</v>
       </c>
       <c r="F107" t="s">
-        <v>1093</v>
+        <v>1046</v>
       </c>
       <c r="G107" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="H107" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7835,13 +7808,13 @@
         <v>1012</v>
       </c>
       <c r="F108" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G108" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="H108" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7861,13 +7834,13 @@
         <v>990</v>
       </c>
       <c r="F109" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G109" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="H109" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7890,10 +7863,10 @@
         <v>1044</v>
       </c>
       <c r="G110" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="H110" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7916,10 +7889,10 @@
         <v>1044</v>
       </c>
       <c r="G111" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H111" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7939,13 +7912,13 @@
         <v>987</v>
       </c>
       <c r="F112" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G112" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="H112" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7968,10 +7941,10 @@
         <v>1075</v>
       </c>
       <c r="G113" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H113" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7991,13 +7964,13 @@
         <v>990</v>
       </c>
       <c r="F114" t="s">
-        <v>1053</v>
+        <v>990</v>
       </c>
       <c r="G114" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="H114" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8017,13 +7990,13 @@
         <v>987</v>
       </c>
       <c r="F115" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G115" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="H115" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8043,13 +8016,13 @@
         <v>1014</v>
       </c>
       <c r="F116" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G116" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="H116" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8069,13 +8042,13 @@
         <v>987</v>
       </c>
       <c r="F117" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G117" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="H117" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8095,13 +8068,13 @@
         <v>1004</v>
       </c>
       <c r="F118" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G118" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="H118" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8121,13 +8094,13 @@
         <v>990</v>
       </c>
       <c r="F119" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G119" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="H119" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8147,13 +8120,13 @@
         <v>1004</v>
       </c>
       <c r="F120" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G120" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="H120" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8173,13 +8146,13 @@
         <v>990</v>
       </c>
       <c r="F121" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G121" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="H121" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8199,13 +8172,13 @@
         <v>1015</v>
       </c>
       <c r="F122" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G122" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="H122" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8225,13 +8198,13 @@
         <v>1016</v>
       </c>
       <c r="F123" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G123" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="H123" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8254,10 +8227,10 @@
         <v>1044</v>
       </c>
       <c r="G124" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="H124" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8277,13 +8250,13 @@
         <v>987</v>
       </c>
       <c r="F125" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G125" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="H125" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8306,10 +8279,10 @@
         <v>1021</v>
       </c>
       <c r="G126" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="H126" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8329,10 +8302,10 @@
         <v>990</v>
       </c>
       <c r="G127" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="H127" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8352,13 +8325,13 @@
         <v>1012</v>
       </c>
       <c r="F128" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G128" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="H128" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8378,13 +8351,13 @@
         <v>1004</v>
       </c>
       <c r="F129" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G129" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="H129" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8404,13 +8377,13 @@
         <v>993</v>
       </c>
       <c r="F130" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G130" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="H130" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8433,10 +8406,10 @@
         <v>1021</v>
       </c>
       <c r="G131" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="H131" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8459,10 +8432,10 @@
         <v>1026</v>
       </c>
       <c r="G132" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="H132" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8485,10 +8458,10 @@
         <v>1046</v>
       </c>
       <c r="G133" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="H133" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8508,13 +8481,13 @@
         <v>1021</v>
       </c>
       <c r="F134" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G134" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="H134" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8534,13 +8507,13 @@
         <v>1020</v>
       </c>
       <c r="F135" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G135" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="H135" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8560,13 +8533,13 @@
         <v>1019</v>
       </c>
       <c r="F136" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G136" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="H136" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8586,13 +8559,13 @@
         <v>1020</v>
       </c>
       <c r="F137" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G137" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="H137" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8612,13 +8585,13 @@
         <v>1022</v>
       </c>
       <c r="F138" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G138" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="H138" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8641,10 +8614,10 @@
         <v>1026</v>
       </c>
       <c r="G139" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="H139" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8664,13 +8637,13 @@
         <v>1023</v>
       </c>
       <c r="F140" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G140" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="H140" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8690,13 +8663,13 @@
         <v>1021</v>
       </c>
       <c r="F141" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G141" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="H141" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8719,10 +8692,10 @@
         <v>1044</v>
       </c>
       <c r="G142" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="H142" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8742,13 +8715,13 @@
         <v>1024</v>
       </c>
       <c r="F143" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="G143" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="H143" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8768,13 +8741,13 @@
         <v>1025</v>
       </c>
       <c r="F144" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G144" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="H144" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8794,13 +8767,13 @@
         <v>1020</v>
       </c>
       <c r="F145" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G145" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="H145" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8820,13 +8793,13 @@
         <v>1019</v>
       </c>
       <c r="F146" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G146" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="H146" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8846,7 +8819,7 @@
         <v>1021</v>
       </c>
       <c r="H147" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8869,10 +8842,10 @@
         <v>1019</v>
       </c>
       <c r="G148" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="H148" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8895,10 +8868,10 @@
         <v>1026</v>
       </c>
       <c r="G149" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="H149" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8918,13 +8891,13 @@
         <v>1019</v>
       </c>
       <c r="F150" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G150" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="H150" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8944,13 +8917,13 @@
         <v>1019</v>
       </c>
       <c r="F151" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G151" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="H151" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8973,10 +8946,10 @@
         <v>1021</v>
       </c>
       <c r="G152" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="H152" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8996,13 +8969,13 @@
         <v>1019</v>
       </c>
       <c r="F153" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G153" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="H153" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9022,13 +8995,13 @@
         <v>1021</v>
       </c>
       <c r="F154" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G154" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="H154" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9051,10 +9024,10 @@
         <v>1021</v>
       </c>
       <c r="G155" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="H155" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9074,13 +9047,13 @@
         <v>1021</v>
       </c>
       <c r="F156" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G156" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="H156" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9100,13 +9073,13 @@
         <v>1025</v>
       </c>
       <c r="F157" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G157" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="H157" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9129,10 +9102,10 @@
         <v>1021</v>
       </c>
       <c r="G158" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="H158" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9155,10 +9128,10 @@
         <v>1021</v>
       </c>
       <c r="G159" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="H159" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9178,13 +9151,13 @@
         <v>1027</v>
       </c>
       <c r="F160" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G160" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="H160" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9204,13 +9177,13 @@
         <v>1019</v>
       </c>
       <c r="F161" t="s">
-        <v>1116</v>
+        <v>1065</v>
       </c>
       <c r="G161" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="H161" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9233,10 +9206,10 @@
         <v>1021</v>
       </c>
       <c r="G162" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="H162" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9259,10 +9232,10 @@
         <v>1021</v>
       </c>
       <c r="G163" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="H163" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9282,13 +9255,13 @@
         <v>1026</v>
       </c>
       <c r="F164" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G164" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="H164" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9308,13 +9281,13 @@
         <v>1026</v>
       </c>
       <c r="F165" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G165" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="H165" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9334,13 +9307,13 @@
         <v>1021</v>
       </c>
       <c r="F166" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G166" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="H166" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9363,10 +9336,10 @@
         <v>1046</v>
       </c>
       <c r="G167" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="H167" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9389,10 +9362,10 @@
         <v>1019</v>
       </c>
       <c r="G168" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="H168" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9412,13 +9385,13 @@
         <v>1028</v>
       </c>
       <c r="F169" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G169" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="H169" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9438,13 +9411,13 @@
         <v>1029</v>
       </c>
       <c r="F170" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G170" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="H170" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9464,13 +9437,13 @@
         <v>1020</v>
       </c>
       <c r="F171" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G171" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="H171" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9490,13 +9463,13 @@
         <v>1023</v>
       </c>
       <c r="F172" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G172" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="H172" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9516,13 +9489,13 @@
         <v>1021</v>
       </c>
       <c r="F173" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G173" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="H173" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9542,13 +9515,13 @@
         <v>1023</v>
       </c>
       <c r="F174" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G174" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="H174" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9568,13 +9541,13 @@
         <v>1021</v>
       </c>
       <c r="F175" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G175" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="H175" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9594,13 +9567,13 @@
         <v>1020</v>
       </c>
       <c r="F176" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G176" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="H176" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9620,13 +9593,13 @@
         <v>1020</v>
       </c>
       <c r="F177" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G177" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="H177" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9646,13 +9619,13 @@
         <v>1030</v>
       </c>
       <c r="F178" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G178" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="H178" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9672,13 +9645,13 @@
         <v>1031</v>
       </c>
       <c r="F179" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G179" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="H179" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9698,13 +9671,13 @@
         <v>1019</v>
       </c>
       <c r="F180" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G180" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="H180" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9724,13 +9697,13 @@
         <v>1032</v>
       </c>
       <c r="F181" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G181" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="H181" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9753,10 +9726,10 @@
         <v>1044</v>
       </c>
       <c r="G182" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="H182" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9776,13 +9749,13 @@
         <v>1021</v>
       </c>
       <c r="F183" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G183" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="H183" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9802,13 +9775,13 @@
         <v>1030</v>
       </c>
       <c r="F184" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G184" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="H184" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9828,13 +9801,13 @@
         <v>1019</v>
       </c>
       <c r="F185" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G185" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="H185" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9854,13 +9827,13 @@
         <v>1021</v>
       </c>
       <c r="F186" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G186" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="H186" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9883,10 +9856,10 @@
         <v>1019</v>
       </c>
       <c r="G187" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="H187" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9906,13 +9879,13 @@
         <v>1019</v>
       </c>
       <c r="F188" t="s">
-        <v>1128</v>
+        <v>1019</v>
       </c>
       <c r="G188" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="H188" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9935,10 +9908,10 @@
         <v>1021</v>
       </c>
       <c r="G189" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="H189" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9958,13 +9931,13 @@
         <v>1021</v>
       </c>
       <c r="F190" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G190" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="H190" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9984,13 +9957,13 @@
         <v>1020</v>
       </c>
       <c r="F191" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G191" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="H191" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10010,13 +9983,13 @@
         <v>1034</v>
       </c>
       <c r="F192" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G192" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="H192" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10039,10 +10012,10 @@
         <v>1019</v>
       </c>
       <c r="G193" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="H193" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10062,13 +10035,13 @@
         <v>1025</v>
       </c>
       <c r="F194" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G194" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="H194" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10091,10 +10064,10 @@
         <v>1019</v>
       </c>
       <c r="G195" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="H195" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10114,13 +10087,13 @@
         <v>1026</v>
       </c>
       <c r="F196" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G196" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="H196" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10140,13 +10113,13 @@
         <v>1021</v>
       </c>
       <c r="F197" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="G197" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="H197" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10166,13 +10139,13 @@
         <v>1026</v>
       </c>
       <c r="F198" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G198" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="H198" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10192,13 +10165,13 @@
         <v>1035</v>
       </c>
       <c r="F199" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G199" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="H199" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10218,13 +10191,13 @@
         <v>1036</v>
       </c>
       <c r="F200" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="G200" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="H200" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10244,13 +10217,13 @@
         <v>1019</v>
       </c>
       <c r="F201" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G201" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="H201" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10273,10 +10246,10 @@
         <v>1026</v>
       </c>
       <c r="G202" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="H202" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10296,13 +10269,13 @@
         <v>1026</v>
       </c>
       <c r="F203" t="s">
-        <v>1132</v>
+        <v>1019</v>
       </c>
       <c r="G203" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="H203" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10325,10 +10298,10 @@
         <v>1019</v>
       </c>
       <c r="G204" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="H204" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10348,13 +10321,13 @@
         <v>1019</v>
       </c>
       <c r="F205" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="G205" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="H205" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10374,10 +10347,10 @@
         <v>1035</v>
       </c>
       <c r="G206" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="H206" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10400,10 +10373,10 @@
         <v>1019</v>
       </c>
       <c r="G207" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="H207" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10423,13 +10396,13 @@
         <v>1026</v>
       </c>
       <c r="F208" t="s">
-        <v>1131</v>
+        <v>1091</v>
       </c>
       <c r="G208" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="H208" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10452,10 +10425,10 @@
         <v>1019</v>
       </c>
       <c r="G209" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="H209" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10478,10 +10451,10 @@
         <v>1019</v>
       </c>
       <c r="G210" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="H210" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10504,10 +10477,10 @@
         <v>1019</v>
       </c>
       <c r="G211" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="H211" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10527,13 +10500,13 @@
         <v>1035</v>
       </c>
       <c r="F212" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="G212" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="H212" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10556,10 +10529,10 @@
         <v>1026</v>
       </c>
       <c r="G213" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="H213" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10579,13 +10552,13 @@
         <v>1035</v>
       </c>
       <c r="F214" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="G214" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="H214" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10605,13 +10578,13 @@
         <v>1035</v>
       </c>
       <c r="F215" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="G215" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="H215" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10634,10 +10607,10 @@
         <v>1019</v>
       </c>
       <c r="G216" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="H216" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10657,13 +10630,13 @@
         <v>1035</v>
       </c>
       <c r="F217" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="G217" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="H217" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10686,10 +10659,10 @@
         <v>1019</v>
       </c>
       <c r="G218" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="H218" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10709,13 +10682,13 @@
         <v>1019</v>
       </c>
       <c r="F219" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="G219" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="H219" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -10735,13 +10708,13 @@
         <v>1026</v>
       </c>
       <c r="F220" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G220" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="H220" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -10764,10 +10737,10 @@
         <v>1026</v>
       </c>
       <c r="G221" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="H221" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -10790,10 +10763,10 @@
         <v>1026</v>
       </c>
       <c r="G222" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="H222" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -10816,10 +10789,10 @@
         <v>1026</v>
       </c>
       <c r="G223" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="H223" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -10842,10 +10815,10 @@
         <v>1079</v>
       </c>
       <c r="G224" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="H224" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10865,13 +10838,13 @@
         <v>1019</v>
       </c>
       <c r="F225" t="s">
-        <v>1070</v>
+        <v>1134</v>
       </c>
       <c r="G225" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="H225" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10891,13 +10864,13 @@
         <v>1037</v>
       </c>
       <c r="F226" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G226" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="H226" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10920,10 +10893,10 @@
         <v>1026</v>
       </c>
       <c r="G227" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="H227" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -10946,10 +10919,10 @@
         <v>1026</v>
       </c>
       <c r="G228" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="H228" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10969,13 +10942,13 @@
         <v>1038</v>
       </c>
       <c r="F229" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="G229" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="H229" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10998,10 +10971,10 @@
         <v>1019</v>
       </c>
       <c r="G230" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="H230" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11024,10 +10997,10 @@
         <v>1026</v>
       </c>
       <c r="G231" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="H231" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11047,13 +11020,13 @@
         <v>1026</v>
       </c>
       <c r="F232" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G232" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="H232" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11076,10 +11049,10 @@
         <v>1026</v>
       </c>
       <c r="G233" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="H233" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11099,13 +11072,13 @@
         <v>1019</v>
       </c>
       <c r="F234" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G234" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="H234" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11125,13 +11098,13 @@
         <v>1019</v>
       </c>
       <c r="F235" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="G235" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="H235" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11151,13 +11124,13 @@
         <v>1038</v>
       </c>
       <c r="F236" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G236" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="H236" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11177,13 +11150,13 @@
         <v>1038</v>
       </c>
       <c r="F237" t="s">
-        <v>1070</v>
+        <v>1134</v>
       </c>
       <c r="G237" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="H237" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11203,13 +11176,13 @@
         <v>1026</v>
       </c>
       <c r="F238" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G238" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="H238" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11229,13 +11202,13 @@
         <v>1037</v>
       </c>
       <c r="F239" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G239" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="H239" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11255,13 +11228,13 @@
         <v>1039</v>
       </c>
       <c r="F240" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G240" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="H240" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11281,13 +11254,13 @@
         <v>1019</v>
       </c>
       <c r="F241" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G241" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="H241" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11307,13 +11280,13 @@
         <v>1038</v>
       </c>
       <c r="F242" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G242" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="H242" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11336,10 +11309,10 @@
         <v>1026</v>
       </c>
       <c r="G243" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="H243" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11362,10 +11335,10 @@
         <v>1019</v>
       </c>
       <c r="G244" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="H244" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11385,13 +11358,13 @@
         <v>1026</v>
       </c>
       <c r="F245" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G245" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="H245" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11414,10 +11387,10 @@
         <v>1026</v>
       </c>
       <c r="G246" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="H246" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11440,10 +11413,10 @@
         <v>1019</v>
       </c>
       <c r="G247" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="H247" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11466,10 +11439,10 @@
         <v>1019</v>
       </c>
       <c r="G248" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="H248" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11492,10 +11465,10 @@
         <v>990</v>
       </c>
       <c r="G249" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="H249" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11515,13 +11488,13 @@
         <v>1026</v>
       </c>
       <c r="F250" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="G250" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="H250" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11541,13 +11514,13 @@
         <v>1036</v>
       </c>
       <c r="F251" t="s">
-        <v>1070</v>
+        <v>1134</v>
       </c>
       <c r="G251" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="H251" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11567,13 +11540,13 @@
         <v>1026</v>
       </c>
       <c r="F252" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="G252" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="H252" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11593,13 +11566,13 @@
         <v>1026</v>
       </c>
       <c r="F253" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G253" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="H253" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11619,13 +11592,13 @@
         <v>1026</v>
       </c>
       <c r="F254" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G254" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="H254" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11645,13 +11618,13 @@
         <v>1026</v>
       </c>
       <c r="F255" t="s">
-        <v>1070</v>
+        <v>1134</v>
       </c>
       <c r="G255" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="H255" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11674,10 +11647,10 @@
         <v>1019</v>
       </c>
       <c r="G256" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="H256" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -11700,10 +11673,10 @@
         <v>1019</v>
       </c>
       <c r="G257" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="H257" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11726,10 +11699,10 @@
         <v>1019</v>
       </c>
       <c r="G258" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="H258" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11752,10 +11725,10 @@
         <v>1019</v>
       </c>
       <c r="G259" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="H259" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11775,13 +11748,13 @@
         <v>1037</v>
       </c>
       <c r="F260" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G260" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="H260" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -11801,13 +11774,13 @@
         <v>1019</v>
       </c>
       <c r="F261" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G261" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="H261" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -11827,13 +11800,13 @@
         <v>1036</v>
       </c>
       <c r="F262" t="s">
-        <v>1070</v>
+        <v>1134</v>
       </c>
       <c r="G262" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="H262" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11853,10 +11826,10 @@
         <v>1019</v>
       </c>
       <c r="G263" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="H263" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11876,13 +11849,13 @@
         <v>1019</v>
       </c>
       <c r="F264" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G264" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="H264" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11905,10 +11878,10 @@
         <v>1019</v>
       </c>
       <c r="G265" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="H265" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11928,13 +11901,13 @@
         <v>1019</v>
       </c>
       <c r="F266" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="G266" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="H266" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11954,13 +11927,13 @@
         <v>1026</v>
       </c>
       <c r="F267" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="G267" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="H267" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11983,10 +11956,10 @@
         <v>990</v>
       </c>
       <c r="G268" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="H268" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12009,10 +11982,10 @@
         <v>1019</v>
       </c>
       <c r="G269" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="H269" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12032,13 +12005,13 @@
         <v>1036</v>
       </c>
       <c r="F270" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G270" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="H270" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12061,10 +12034,10 @@
         <v>1019</v>
       </c>
       <c r="G271" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="H271" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12084,13 +12057,13 @@
         <v>1038</v>
       </c>
       <c r="F272" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G272" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="H272" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12110,13 +12083,13 @@
         <v>1019</v>
       </c>
       <c r="F273" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G273" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="H273" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12136,13 +12109,13 @@
         <v>1019</v>
       </c>
       <c r="F274" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G274" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="H274" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12162,13 +12135,13 @@
         <v>1026</v>
       </c>
       <c r="F275" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G275" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="H275" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12191,10 +12164,10 @@
         <v>1026</v>
       </c>
       <c r="G276" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="H276" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12214,13 +12187,13 @@
         <v>1019</v>
       </c>
       <c r="F277" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G277" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="H277" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12240,13 +12213,13 @@
         <v>1019</v>
       </c>
       <c r="F278" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G278" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="H278" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12269,10 +12242,10 @@
         <v>1021</v>
       </c>
       <c r="G279" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="H279" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12292,13 +12265,13 @@
         <v>1019</v>
       </c>
       <c r="F280" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G280" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="H280" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12318,13 +12291,13 @@
         <v>1019</v>
       </c>
       <c r="F281" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G281" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="H281" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12344,13 +12317,13 @@
         <v>1019</v>
       </c>
       <c r="F282" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="G282" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="H282" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12373,10 +12346,10 @@
         <v>1026</v>
       </c>
       <c r="G283" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="H283" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12396,13 +12369,13 @@
         <v>1019</v>
       </c>
       <c r="F284" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G284" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="H284" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12422,13 +12395,13 @@
         <v>1019</v>
       </c>
       <c r="F285" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G285" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="H285" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12448,13 +12421,13 @@
         <v>1019</v>
       </c>
       <c r="F286" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G286" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="H286" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12474,13 +12447,13 @@
         <v>1026</v>
       </c>
       <c r="F287" t="s">
-        <v>1160</v>
+        <v>1070</v>
       </c>
       <c r="G287" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="H287" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12500,13 +12473,13 @@
         <v>1040</v>
       </c>
       <c r="F288" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G288" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="H288" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12526,13 +12499,13 @@
         <v>1019</v>
       </c>
       <c r="F289" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="G289" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="H289" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12552,13 +12525,13 @@
         <v>1019</v>
       </c>
       <c r="F290" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="G290" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="H290" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12581,10 +12554,10 @@
         <v>1021</v>
       </c>
       <c r="G291" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="H291" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12607,10 +12580,10 @@
         <v>1026</v>
       </c>
       <c r="G292" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="H292" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12630,13 +12603,13 @@
         <v>1019</v>
       </c>
       <c r="F293" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G293" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="H293" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12659,10 +12632,10 @@
         <v>1019</v>
       </c>
       <c r="G294" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="H294" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12682,13 +12655,13 @@
         <v>1026</v>
       </c>
       <c r="F295" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="G295" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="H295" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12711,10 +12684,10 @@
         <v>1019</v>
       </c>
       <c r="G296" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="H296" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12737,10 +12710,10 @@
         <v>1019</v>
       </c>
       <c r="G297" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="H297" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -12763,10 +12736,10 @@
         <v>1019</v>
       </c>
       <c r="G298" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="H298" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -12786,13 +12759,13 @@
         <v>1019</v>
       </c>
       <c r="F299" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="G299" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="H299" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -12812,13 +12785,13 @@
         <v>1019</v>
       </c>
       <c r="F300" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G300" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="H300" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12841,10 +12814,10 @@
         <v>1019</v>
       </c>
       <c r="G301" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="H301" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -12864,13 +12837,13 @@
         <v>1036</v>
       </c>
       <c r="F302" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="G302" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="H302" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -12893,10 +12866,10 @@
         <v>1026</v>
       </c>
       <c r="G303" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="H303" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12919,10 +12892,10 @@
         <v>1021</v>
       </c>
       <c r="G304" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="H304" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -12945,10 +12918,10 @@
         <v>1026</v>
       </c>
       <c r="G305" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="H305" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12968,13 +12941,13 @@
         <v>1019</v>
       </c>
       <c r="F306" t="s">
-        <v>1166</v>
+        <v>1050</v>
       </c>
       <c r="G306" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="H306" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -12997,10 +12970,10 @@
         <v>1019</v>
       </c>
       <c r="G307" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="H307" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13020,13 +12993,13 @@
         <v>1019</v>
       </c>
       <c r="F308" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G308" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="H308" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13049,10 +13022,10 @@
         <v>1019</v>
       </c>
       <c r="G309" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="H309" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13075,10 +13048,10 @@
         <v>1026</v>
       </c>
       <c r="G310" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="H310" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13101,10 +13074,10 @@
         <v>1026</v>
       </c>
       <c r="G311" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="H311" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13124,13 +13097,13 @@
         <v>1026</v>
       </c>
       <c r="F312" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G312" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="H312" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13150,13 +13123,13 @@
         <v>1037</v>
       </c>
       <c r="F313" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="G313" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="H313" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13179,10 +13152,10 @@
         <v>1019</v>
       </c>
       <c r="G314" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="H314" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13205,10 +13178,10 @@
         <v>1026</v>
       </c>
       <c r="G315" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="H315" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13228,13 +13201,13 @@
         <v>1019</v>
       </c>
       <c r="F316" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="G316" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="H316" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13254,13 +13227,13 @@
         <v>1026</v>
       </c>
       <c r="F317" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="G317" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="H317" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13280,13 +13253,13 @@
         <v>1026</v>
       </c>
       <c r="F318" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G318" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="H318" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13306,13 +13279,13 @@
         <v>1026</v>
       </c>
       <c r="F319" t="s">
-        <v>1163</v>
+        <v>1091</v>
       </c>
       <c r="G319" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="H319" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13335,10 +13308,10 @@
         <v>1019</v>
       </c>
       <c r="G320" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="H320" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13361,10 +13334,10 @@
         <v>1026</v>
       </c>
       <c r="G321" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="H321" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13384,13 +13357,13 @@
         <v>1038</v>
       </c>
       <c r="F322" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="G322" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="H322" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13410,13 +13383,13 @@
         <v>1038</v>
       </c>
       <c r="F323" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="G323" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="H323" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13439,10 +13412,10 @@
         <v>1026</v>
       </c>
       <c r="G324" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="H324" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13465,10 +13438,10 @@
         <v>990</v>
       </c>
       <c r="G325" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="H325" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13491,10 +13464,10 @@
         <v>1019</v>
       </c>
       <c r="G326" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="H326" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13517,10 +13490,10 @@
         <v>1026</v>
       </c>
       <c r="G327" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="H327" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13540,13 +13513,13 @@
         <v>1026</v>
       </c>
       <c r="F328" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G328" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="H328" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13566,13 +13539,13 @@
         <v>1026</v>
       </c>
       <c r="F329" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="G329" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="H329" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13592,13 +13565,13 @@
         <v>1035</v>
       </c>
       <c r="F330" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="G330" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="H330" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13621,10 +13594,10 @@
         <v>1021</v>
       </c>
       <c r="G331" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="H331" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -13644,13 +13617,13 @@
         <v>1035</v>
       </c>
       <c r="F332" t="s">
-        <v>1174</v>
+        <v>1026</v>
       </c>
       <c r="G332" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="H332" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13670,13 +13643,13 @@
         <v>1035</v>
       </c>
       <c r="F333" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G333" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="H333" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -13696,13 +13669,13 @@
         <v>1026</v>
       </c>
       <c r="F334" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="G334" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="H334" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -13722,13 +13695,13 @@
         <v>1026</v>
       </c>
       <c r="F335" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G335" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="H335" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -13748,13 +13721,13 @@
         <v>1026</v>
       </c>
       <c r="F336" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G336" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="H336" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -13777,10 +13750,10 @@
         <v>1026</v>
       </c>
       <c r="G337" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="H337" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13803,10 +13776,10 @@
         <v>1026</v>
       </c>
       <c r="G338" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="H338" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13826,13 +13799,13 @@
         <v>1026</v>
       </c>
       <c r="F339" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="G339" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="H339" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13855,10 +13828,10 @@
         <v>1026</v>
       </c>
       <c r="G340" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="H340" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13878,13 +13851,13 @@
         <v>1024</v>
       </c>
       <c r="F341" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="G341" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="H341" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13904,13 +13877,13 @@
         <v>1026</v>
       </c>
       <c r="F342" t="s">
-        <v>1092</v>
+        <v>1026</v>
       </c>
       <c r="G342" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="H342" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -13930,13 +13903,13 @@
         <v>1026</v>
       </c>
       <c r="F343" t="s">
-        <v>1178</v>
+        <v>1122</v>
       </c>
       <c r="G343" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="H343" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13956,13 +13929,13 @@
         <v>1026</v>
       </c>
       <c r="F344" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="G344" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="H344" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -13982,13 +13955,13 @@
         <v>1026</v>
       </c>
       <c r="F345" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G345" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="H345" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14011,10 +13984,10 @@
         <v>1026</v>
       </c>
       <c r="G346" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="H346" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14034,13 +14007,13 @@
         <v>1026</v>
       </c>
       <c r="F347" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="G347" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="H347" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14063,10 +14036,10 @@
         <v>1019</v>
       </c>
       <c r="G348" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="H348" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14086,13 +14059,13 @@
         <v>1026</v>
       </c>
       <c r="F349" t="s">
-        <v>1176</v>
+        <v>1091</v>
       </c>
       <c r="G349" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="H349" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14115,10 +14088,10 @@
         <v>1026</v>
       </c>
       <c r="G350" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="H350" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14138,13 +14111,13 @@
         <v>1026</v>
       </c>
       <c r="F351" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="G351" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="H351" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14167,10 +14140,10 @@
         <v>1019</v>
       </c>
       <c r="G352" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="H352" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14193,10 +14166,10 @@
         <v>1021</v>
       </c>
       <c r="G353" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="H353" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14216,13 +14189,13 @@
         <v>1026</v>
       </c>
       <c r="F354" t="s">
-        <v>1180</v>
+        <v>1146</v>
       </c>
       <c r="G354" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="H354" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14242,13 +14215,13 @@
         <v>1026</v>
       </c>
       <c r="F355" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G355" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H355" t="s">
         <v>1519</v>
-      </c>
-      <c r="H355" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14271,10 +14244,10 @@
         <v>1026</v>
       </c>
       <c r="G356" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="H356" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14294,10 +14267,10 @@
         <v>1026</v>
       </c>
       <c r="G357" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="H357" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14317,13 +14290,13 @@
         <v>1026</v>
       </c>
       <c r="F358" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G358" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="H358" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14346,10 +14319,10 @@
         <v>1026</v>
       </c>
       <c r="G359" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="H359" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
   </sheetData>
